--- a/debate/ACM/states_ACM_regression_analysis.xlsx
+++ b/debate/ACM/states_ACM_regression_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579E6BE5-E6AE-41A6-B678-A1EED7DAD71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C9DC3E-8D05-4892-A1E4-3FC3D8865F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{731BA8CD-4BE5-45C5-B932-9FB51EE0C43B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25140" windowHeight="13605" xr2:uid="{731BA8CD-4BE5-45C5-B932-9FB51EE0C43B}"/>
   </bookViews>
   <sheets>
     <sheet name="21-22 vs H2 baseline" sheetId="23" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="22" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1049,7 +1049,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1058,7 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13148,7 +13147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9B8BD7C-383A-4BD9-9D3C-9658E1E2767A}" name="PivotTable15" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9B8BD7C-383A-4BD9-9D3C-9658E1E2767A}" name="PivotTable15" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I58" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -13854,7 +13853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517E209-A571-4121-A731-80892260C1EA}">
   <dimension ref="A3:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="N8" sqref="N8:N57"/>
     </sheetView>
   </sheetViews>
@@ -13972,28 +13971,28 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>16985</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>5322</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>5681</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>7212</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>18215</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>35200</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>68889</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>62294</v>
       </c>
       <c r="K8" s="5">
@@ -14016,28 +14015,28 @@
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>1303</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>481</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>511</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>525</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>1517</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>2820</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>6208</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>5719</v>
       </c>
       <c r="K9" s="5">
@@ -14060,28 +14059,28 @@
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>20243</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>5572</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>6054</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>9062</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>20688</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>40931</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>81442</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>74082</v>
       </c>
       <c r="K10" s="5">
@@ -14104,28 +14103,28 @@
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>9653</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>3478</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>3710</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>4091</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>11279</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>20932</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>40070</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>37855</v>
       </c>
       <c r="K11" s="5">
@@ -14148,28 +14147,28 @@
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>79217</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>24459</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>26508</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>40949</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>91916</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>171133</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>333249</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>313161</v>
       </c>
       <c r="K12" s="5">
@@ -14192,28 +14191,28 @@
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>10564</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>3746</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>4655</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>5185</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>13586</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>24150</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>48281</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>46787</v>
       </c>
       <c r="K13" s="5">
@@ -14236,28 +14235,28 @@
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>7635</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>2827</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>3136</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>3865</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>9828</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>17463</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>34333</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>34583</v>
       </c>
       <c r="K14" s="5">
@@ -14280,28 +14279,28 @@
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2559</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>904</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>866</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>1250</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>3020</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>5579</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>11296</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>11351</v>
       </c>
       <c r="K15" s="5">
@@ -14324,28 +14323,28 @@
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1305</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>468</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>472</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>596</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>1536</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>2841</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>5833</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>5385</v>
       </c>
       <c r="K16" s="5">
@@ -14368,28 +14367,28 @@
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>66662</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>19331</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>19216</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>22557</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>61104</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>127766</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>261369</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>239119</v>
       </c>
       <c r="K17" s="5">
@@ -14412,28 +14411,28 @@
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>27433</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>8508</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>8614</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>10457</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>27579</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>55012</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>112272</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>102342</v>
       </c>
       <c r="K18" s="5">
@@ -14456,28 +14455,28 @@
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>4142</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>1446</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>1716</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>1698</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>4860</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>9002</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>18346</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>17162</v>
       </c>
       <c r="K19" s="5">
@@ -14500,28 +14499,28 @@
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>28996</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>10596</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20">
         <v>13283</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>14504</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>38383</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>67379</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>125048</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>122963</v>
       </c>
       <c r="K20" s="5">
@@ -14544,28 +14543,28 @@
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>17619</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>6604</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>7689</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>8944</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>23237</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>40856</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>78317</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>75368</v>
       </c>
       <c r="K21" s="5">
@@ -14588,28 +14587,28 @@
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>8396</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>3254</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>4043</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>3918</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>11215</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>19611</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <v>34215</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>33973</v>
       </c>
       <c r="K22" s="5">
@@ -14632,28 +14631,28 @@
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>7506</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>2863</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>3300</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>3989</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>10152</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>17658</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>32029</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>31551</v>
       </c>
       <c r="K23" s="5">
@@ -14676,28 +14675,28 @@
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>13451</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>4958</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>5347</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>6275</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>16580</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <v>30031</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <v>60303</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>57053</v>
       </c>
       <c r="K24" s="5">
@@ -14720,28 +14719,28 @@
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>14651</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>4428</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>4577</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>5378</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>14383</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>29034</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <v>57533</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>52339</v>
       </c>
       <c r="K25" s="5">
@@ -14764,28 +14763,28 @@
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>3794</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>1249</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
         <v>1406</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>1547</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>4202</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>7996</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <v>17269</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>17364</v>
       </c>
       <c r="K26" s="5">
@@ -14808,28 +14807,28 @@
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>13658</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>4801</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>4977</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
         <v>6084</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>15862</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>29520</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>58117</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>56456</v>
       </c>
       <c r="K27" s="5">
@@ -14852,28 +14851,28 @@
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>13659</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>4937</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28">
         <v>5184</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>6329</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>16450</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>30109</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>63115</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <v>63366</v>
       </c>
       <c r="K28" s="5">
@@ -14896,28 +14895,28 @@
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>25745</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>9547</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29">
         <v>10943</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>12452</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>32942</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>58687</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>117782</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>110499</v>
       </c>
       <c r="K29" s="5">
@@ -14940,28 +14939,28 @@
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>11720</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>4476</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <v>5479</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>5744</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>15699</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <v>27419</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>51640</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>51222</v>
       </c>
       <c r="K30" s="5">
@@ -14994,28 +14993,28 @@
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>10735</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>3258</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31">
         <v>3452</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>4298</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>11008</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>21743</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <v>41085</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>37803</v>
       </c>
       <c r="K31" s="5">
@@ -15047,28 +15046,28 @@
       <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>17583</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>6680</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32">
         <v>7767</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <v>8219</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>22666</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <v>40249</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <v>73847</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>71851</v>
       </c>
       <c r="K32" s="5">
@@ -15100,28 +15099,28 @@
       <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>2772</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>1304</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33">
         <v>1326</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>1280</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>3910</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>6682</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <v>12707</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>11684</v>
       </c>
       <c r="K33" s="5">
@@ -15150,28 +15149,28 @@
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <v>4519</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>1805</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34">
         <v>2298</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>2066</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>6169</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <v>10688</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>18925</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <v>18615</v>
       </c>
       <c r="K34" s="5">
@@ -15200,28 +15199,28 @@
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>7883</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>2388</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35">
         <v>2715</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <v>3733</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>8836</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>16719</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <v>32923</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>30960</v>
       </c>
       <c r="K35" s="5">
@@ -15244,28 +15243,28 @@
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>3218</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>1096</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>1181</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>1393</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>3670</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>6888</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <v>14198</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>14515</v>
       </c>
       <c r="K36" s="5">
@@ -15295,28 +15294,28 @@
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>18037</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>6266</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37">
         <v>7127</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <v>9233</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>22626</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>40663</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <v>84032</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37">
         <v>81490</v>
       </c>
       <c r="K37" s="5">
@@ -15346,28 +15345,28 @@
       <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38">
         <v>5508</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>1926</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>2601</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>2967</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>7494</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>13002</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <v>25300</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <v>23655</v>
       </c>
       <c r="K38" s="5">
@@ -15390,28 +15389,28 @@
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>38024</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>13446</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>14208</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>18117</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>45771</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>83795</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <v>181360</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>173944</v>
       </c>
       <c r="K39" s="5">
@@ -15434,28 +15433,28 @@
       <c r="A40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>27347</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>9402</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40">
         <v>9688</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>11424</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>30514</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>57861</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <v>118093</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40">
         <v>112923</v>
       </c>
       <c r="K40" s="5">
@@ -15478,28 +15477,28 @@
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>1730</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>908</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>1033</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>813</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>2754</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>4484</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>7266</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41">
         <v>7041</v>
       </c>
       <c r="K41" s="5">
@@ -15522,28 +15521,28 @@
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>33494</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>11834</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42">
         <v>13899</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>17851</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>43584</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>77078</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42">
         <v>147635</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42">
         <v>138209</v>
       </c>
       <c r="K42" s="5">
@@ -15566,28 +15565,28 @@
       <c r="A43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>11350</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43">
         <v>4316</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43">
         <v>4937</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>5820</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>15073</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>26423</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43">
         <v>50945</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43">
         <v>47976</v>
       </c>
       <c r="K43" s="5">
@@ -15610,28 +15609,28 @@
       <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>9847</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44">
         <v>3325</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44">
         <v>3642</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>4080</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>11047</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>20894</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44">
         <v>44989</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44">
         <v>44598</v>
       </c>
       <c r="K44" s="5">
@@ -15654,28 +15653,28 @@
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45">
         <v>34213</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>12004</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>14106</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>19172</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>45282</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45">
         <v>79495</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45">
         <v>155390</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45">
         <v>147181</v>
       </c>
       <c r="K45" s="5">
@@ -15698,28 +15697,28 @@
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46">
         <v>2489</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46">
         <v>883</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46">
         <v>1006</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46">
         <v>1362</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46">
         <v>3251</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46">
         <v>5740</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46">
         <v>11243</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46">
         <v>10704</v>
       </c>
       <c r="K46" s="5">
@@ -15742,28 +15741,28 @@
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47">
         <v>16701</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47">
         <v>5120</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47">
         <v>5161</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47">
         <v>6137</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>16418</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>33119</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47">
         <v>65422</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47">
         <v>61052</v>
       </c>
       <c r="K47" s="5">
@@ -15786,28 +15785,28 @@
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48">
         <v>2210</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48">
         <v>961</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48">
         <v>1430</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>1049</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48">
         <v>3440</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48">
         <v>5650</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48">
         <v>9185</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48">
         <v>9016</v>
       </c>
       <c r="K48" s="5">
@@ -15830,28 +15829,28 @@
       <c r="A49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49">
         <v>20912</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49">
         <v>7571</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49">
         <v>7901</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>9530</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>25002</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>45914</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49">
         <v>91130</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49">
         <v>84989</v>
       </c>
       <c r="K49" s="5">
@@ -15874,28 +15873,28 @@
       <c r="A50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50">
         <v>69410</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50">
         <v>20944</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>23087</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>26664</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50">
         <v>70695</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>140105</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50">
         <v>267651</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50">
         <v>241441</v>
       </c>
       <c r="K50" s="5">
@@ -15918,28 +15917,28 @@
       <c r="A51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51">
         <v>5316</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51">
         <v>1866</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51">
         <v>2049</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>2236</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51">
         <v>6151</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>11467</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51">
         <v>22569</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51">
         <v>21886</v>
       </c>
       <c r="K51" s="5">
@@ -15962,28 +15961,28 @@
       <c r="A52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52">
         <v>1520</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52">
         <v>536</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52">
         <v>547</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52">
         <v>621</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>1704</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52">
         <v>3224</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52">
         <v>6877</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52">
         <v>6971</v>
       </c>
       <c r="K52" s="5">
@@ -16006,28 +16005,28 @@
       <c r="A53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>19600</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>6700</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>6913</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>8307</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53">
         <v>21920</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>41520</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53">
         <v>85940</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53">
         <v>82935</v>
       </c>
       <c r="K53" s="5">
@@ -16050,28 +16049,28 @@
       <c r="A54" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>15497</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>5201</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>5548</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>6137</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>16886</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54">
         <v>32383</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54">
         <v>68689</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54">
         <v>69194</v>
       </c>
       <c r="K54" s="5">
@@ -16094,28 +16093,28 @@
       <c r="A55" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>6248</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>2134</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>2393</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>3065</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55">
         <v>7592</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>13840</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55">
         <v>29503</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55">
         <v>27507</v>
       </c>
       <c r="K55" s="5">
@@ -16138,28 +16137,28 @@
       <c r="A56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56">
         <v>14275</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>5729</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56">
         <v>7109</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56">
         <v>6678</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56">
         <v>19516</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56">
         <v>33791</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56">
         <v>60973</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56">
         <v>60590</v>
       </c>
       <c r="K56" s="5">
@@ -16182,28 +16181,28 @@
       <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57">
         <v>1430</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57">
         <v>561</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57">
         <v>627</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57">
         <v>698</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57">
         <v>1886</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57">
         <v>3316</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57">
         <v>6582</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57">
         <v>5905</v>
       </c>
       <c r="K57" s="5">
@@ -16226,28 +16225,28 @@
       <c r="A58" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58">
         <v>808764</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>272419</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <v>301118</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58">
         <v>365561</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>939098</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>1747862</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>3451415</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58">
         <v>3266629</v>
       </c>
     </row>
@@ -16261,7 +16260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ABB899-0690-4D7E-ABD9-59023A40AA4B}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/debate/ACM/states_ACM_regression_analysis.xlsx
+++ b/debate/ACM/states_ACM_regression_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C9DC3E-8D05-4892-A1E4-3FC3D8865F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C5A6E-0F2E-4A4A-B0ED-063D46117784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="25140" windowHeight="13605" xr2:uid="{731BA8CD-4BE5-45C5-B932-9FB51EE0C43B}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="167">
   <si>
     <t>State</t>
   </si>
@@ -541,12 +541,6 @@
     <t>r2</t>
   </si>
   <si>
-    <t>lower slope</t>
-  </si>
-  <si>
-    <t>upper slope</t>
-  </si>
-  <si>
     <t>Full</t>
   </si>
   <si>
@@ -563,6 +557,15 @@
   </si>
   <si>
     <t>Omit hawaii since no vax data</t>
+  </si>
+  <si>
+    <t>95% confidence intervals for the slope</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>21-22 monthly</a:t>
+              <a:t>21-22 average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1159,7 +1162,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>relative to 2020H2 basseline monthly ACM</a:t>
+              <a:t>relative to 2020H2 basseline  ACM</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US"/>
@@ -1170,7 +1173,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> level of the state</a:t>
+              <a:t> level of the state in doses per 100 people</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -13851,10 +13854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517E209-A571-4121-A731-80892260C1EA}">
-  <dimension ref="A3:S58"/>
+  <dimension ref="A3:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:N57"/>
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13919,7 +13922,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
         <v>89</v>
@@ -13961,7 +13964,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>99</v>
@@ -15095,7 +15098,7 @@
         <v>5.826330165142516E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>59</v>
       </c>
@@ -15145,7 +15148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -15195,7 +15198,7 @@
         <v>0.16294139132759816</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -15239,7 +15242,7 @@
         <v>1.024869731505724</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -15283,14 +15286,17 @@
         <v>1.0886032757051864</v>
       </c>
       <c r="Q36" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R36">
         <f>R30-(2*R31)</f>
         <v>1.3166753824743521E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -15334,14 +15340,14 @@
         <v>1.0971603563474388</v>
       </c>
       <c r="Q37" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="R37">
         <f>R30+(2*R31)</f>
         <v>3.2785337600128956E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
@@ -15385,7 +15391,7 @@
         <v>1.0163386480651055</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -15429,7 +15435,7 @@
         <v>1.1270389881949308</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>66</v>
       </c>
@@ -15473,7 +15479,7 @@
         <v>1.0364221059356404</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
@@ -15517,7 +15523,7 @@
         <v>0.81193816398801411</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -15561,7 +15567,7 @@
         <v>1.0054676639595679</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>69</v>
       </c>
@@ -15605,7 +15611,7 @@
         <v>1.0002689737740458</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
@@ -15649,7 +15655,7 @@
         <v>1.1100248800602672</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -15693,7 +15699,7 @@
         <v>1.0449683371185119</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
@@ -15737,7 +15743,7 @@
         <v>1.0443790924318563</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>73</v>
       </c>
@@ -15781,7 +15787,7 @@
         <v>0.97653065006300499</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -16261,7 +16267,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16277,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -43912,12 +43918,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -43927,7 +43933,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/debate/ACM/states_ACM_regression_analysis.xlsx
+++ b/debate/ACM/states_ACM_regression_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C5A6E-0F2E-4A4A-B0ED-063D46117784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2959ABE4-122A-4492-95D7-9E1AAEA02507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25140" windowHeight="13605" xr2:uid="{731BA8CD-4BE5-45C5-B932-9FB51EE0C43B}"/>
+    <workbookView xWindow="2700" yWindow="1200" windowWidth="25140" windowHeight="13605" xr2:uid="{731BA8CD-4BE5-45C5-B932-9FB51EE0C43B}"/>
   </bookViews>
   <sheets>
     <sheet name="21-22 vs H2 baseline" sheetId="23" r:id="rId1"/>
